--- a/data/Supplementary Tables.xlsx
+++ b/data/Supplementary Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efrat\Documents\GitHub\microbiome-metabolome-curated-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FBFE25-A4F6-4FD8-B418-491AEA03BC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6B3FDC-F890-4B51-A6C5-22AE19ACB653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C58E8523-33F6-4E0C-953F-5B6F4D40C8B0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="200">
   <si>
     <t>Dataset ID (1)</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Paired-end Y/N</t>
   </si>
   <si>
-    <t>Reads length (4)</t>
-  </si>
-  <si>
     <t>Data location</t>
   </si>
   <si>
@@ -220,15 +217,6 @@
   </si>
   <si>
     <t>(1) The “Dataset ID” is formatted as following: &lt;First author&gt;_&lt;Short cohort description&gt;_&lt;Year of publication&gt;.</t>
-  </si>
-  <si>
-    <t>(3) Only the data used for this meta-analysis is considered (some studies include both 16S and WGS for example)</t>
-  </si>
-  <si>
-    <t>(4) For pyrosequencing datasets, the given numbers are medians (marked by * as well)</t>
-  </si>
-  <si>
-    <t>(5) In raw sequencing files</t>
   </si>
   <si>
     <t>HE_INFANTS_MFGM</t>
@@ -349,9 +337,6 @@
     <t>Cases were excluded as there were less than 40.</t>
   </si>
   <si>
-    <t>(2) Numbers represent only those samples/subjects with both metabolomics data and microbiome data. In some cases additional sample/subject filtering was applied (see comments and Methods section);</t>
-  </si>
-  <si>
     <t>Metabolites were identified by name and most also had KEGG ID's.</t>
   </si>
   <si>
@@ -409,9 +394,6 @@
     <t>NCBI BioProject ID PRJNA400072 / Paper SI</t>
   </si>
   <si>
-    <t>Sequencing depth (Avg. number of reads per sample) (5)</t>
-  </si>
-  <si>
     <t>DDBJ Sequence Read Archive DRA006684 and DRA008156 / Paper SI</t>
   </si>
   <si>
@@ -641,6 +623,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Description of studies included in the analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) Numbers represent only those samples/subjects with both metabolomics data and microbiome data. </t>
+  </si>
+  <si>
+    <t>(3) Only the data included in this collection are mentiioned (some studies include both 16S and WGSS for example)</t>
+  </si>
+  <si>
+    <t>Reads length</t>
+  </si>
+  <si>
+    <t>Sequencing depth (Avg. number of reads per sample) (4)</t>
+  </si>
+  <si>
+    <t>(4) In raw sequencing files (i.e. before processing)</t>
   </si>
 </sst>
 </file>
@@ -826,6 +823,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -836,12 +839,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1171,31 +1168,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1208,13 +1205,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57439337-C632-449F-95CC-9CA24940408D}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,739 +1237,787 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="23" t="s">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="R11" s="23" t="s">
+      <c r="Q10" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" s="25" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
     <row r="12" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="12">
+        <v>127</v>
+      </c>
+      <c r="D12" s="12">
+        <v>220</v>
+      </c>
+      <c r="E12" s="12">
+        <v>127</v>
+      </c>
+      <c r="F12" s="12">
+        <v>220</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3">
+        <v>150</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="E13" s="12">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="F13" s="12">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="3">
-        <v>150</v>
+      <c r="J13" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="P13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="12">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D14" s="12">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="E14" s="12">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F14" s="12">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="H14" s="3">
+        <v>454</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4">
+        <v>68</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3">
+        <v>250</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="12">
-        <v>89</v>
-      </c>
-      <c r="D15" s="12">
-        <v>42</v>
-      </c>
-      <c r="E15" s="12">
-        <v>89</v>
-      </c>
-      <c r="F15" s="12">
-        <v>42</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="D16" s="12">
+        <v>79</v>
+      </c>
+      <c r="E16" s="12">
+        <v>72</v>
+      </c>
+      <c r="F16" s="12">
+        <v>212</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="3">
-        <v>454</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4">
-        <v>68</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="3">
-        <v>250</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="L16" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C17" s="12">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E17" s="12">
-        <v>72</v>
-      </c>
-      <c r="F17" s="12">
-        <v>212</v>
+        <v>54</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="N17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="C18" s="12">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="12">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="12">
+        <v>42</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="12">
+        <v>42</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="12">
+        <v>102</v>
+      </c>
+      <c r="D20" s="12">
+        <v>138</v>
+      </c>
+      <c r="E20" s="12">
+        <v>102</v>
+      </c>
+      <c r="F20" s="12">
+        <v>138</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="12">
+        <v>24</v>
+      </c>
+      <c r="D21" s="12">
+        <v>51</v>
+      </c>
+      <c r="E21" s="12">
+        <v>70</v>
+      </c>
+      <c r="F21" s="12">
+        <v>143</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="12">
-        <v>83</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="12">
-        <v>141</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="4">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4">
         <v>23</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="4" t="s">
+      <c r="E22" s="4">
         <v>21</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="F22" s="4">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="12">
-        <v>42</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="12">
-        <v>42</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4">
+        <v>37</v>
+      </c>
+      <c r="F23" s="4">
+        <v>66</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="4" t="s">
+      <c r="J23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="12">
-        <v>102</v>
-      </c>
-      <c r="D21" s="12">
-        <v>138</v>
-      </c>
-      <c r="E21" s="12">
-        <v>102</v>
-      </c>
-      <c r="F21" s="12">
-        <v>138</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="12">
-        <v>24</v>
-      </c>
-      <c r="D22" s="12">
-        <v>51</v>
-      </c>
-      <c r="E22" s="12">
-        <v>70</v>
-      </c>
-      <c r="F22" s="12">
-        <v>143</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="4">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4">
-        <v>23</v>
-      </c>
-      <c r="E23" s="4">
-        <v>21</v>
-      </c>
-      <c r="F23" s="4">
-        <v>23</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="Q23" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" s="4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
         <v>11</v>
@@ -1981,109 +2026,56 @@
         <v>37</v>
       </c>
       <c r="F24" s="4">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>35</v>
+        <v>187</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="4">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4">
-        <v>37</v>
-      </c>
-      <c r="F25" s="4">
-        <v>38</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L24" r:id="rId1" xr:uid="{CF64AB01-D3F6-450B-B154-C029DE60451D}"/>
+    <hyperlink ref="L23" r:id="rId1" xr:uid="{CF64AB01-D3F6-450B-B154-C029DE60451D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId2"/>
@@ -2114,488 +2106,488 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+      <c r="J9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="26" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26" t="s">
+      <c r="D10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="22" t="s">
+      <c r="E10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="F10" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7">
         <v>292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
         <v>101</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="7">
         <v>231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3">
         <v>250</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3">
         <v>173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D23" s="3">
         <v>140</v>
@@ -2604,19 +2596,19 @@
         <v>18</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H23" s="3">
         <v>275</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2656,35 +2648,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="15">
         <v>450</v>
@@ -2695,13 +2687,13 @@
     </row>
     <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" s="15">
         <v>8848</v>
@@ -2712,13 +2704,13 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" s="15">
         <v>530</v>
@@ -2729,13 +2721,13 @@
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="15">
         <v>120</v>
@@ -2746,13 +2738,13 @@
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D8" s="15">
         <v>81867</v>
@@ -2763,13 +2755,13 @@
     </row>
     <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" s="15">
         <v>4626</v>
@@ -2780,13 +2772,13 @@
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="15">
         <v>489</v>
@@ -2797,13 +2789,13 @@
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D11" s="16">
         <v>524</v>
@@ -2814,13 +2806,13 @@
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="16">
         <v>462</v>
@@ -2831,13 +2823,13 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="15">
         <v>43</v>
@@ -2848,13 +2840,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="15">
         <v>61</v>
@@ -2865,13 +2857,13 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D15" s="15">
         <v>184</v>
@@ -2880,15 +2872,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
-        <v>163</v>
+    <row r="16" spans="1:5" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D16" s="15">
         <v>453</v>
